--- a/intro_tabell/insert_garn_har_farger.xlsx
+++ b/intro_tabell/insert_garn_har_farger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b274f0dbc59c8fd/Dokumenter/HIOF/V_2024/Databasesystemer/intro_tabell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{32B03E83-1978-47B0-B7E9-F4B3274FB74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D41233D3-C623-4553-820E-22184CC7B226}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{32B03E83-1978-47B0-B7E9-F4B3274FB74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D01DD37-82B8-4503-A92A-094F076A8A38}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F93FE69C-139A-4D71-9445-C1C5B39D7C2F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="218">
   <si>
     <t>Produsent</t>
   </si>
@@ -109,6 +109,588 @@
   </si>
   <si>
     <t>Glitter</t>
+  </si>
+  <si>
+    <t>farge_navn</t>
+  </si>
+  <si>
+    <t>natur</t>
+  </si>
+  <si>
+    <t>hvete</t>
+  </si>
+  <si>
+    <t>perlegrå</t>
+  </si>
+  <si>
+    <t>mellomgrå</t>
+  </si>
+  <si>
+    <t>brun</t>
+  </si>
+  <si>
+    <t>koksgrå</t>
+  </si>
+  <si>
+    <t>rubinrød</t>
+  </si>
+  <si>
+    <t>lys rosa</t>
+  </si>
+  <si>
+    <t>marineblå</t>
+  </si>
+  <si>
+    <t>tåke</t>
+  </si>
+  <si>
+    <t>påfuglblå</t>
+  </si>
+  <si>
+    <t>mosegrønn</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>lyng</t>
+  </si>
+  <si>
+    <t>lilla tåke</t>
+  </si>
+  <si>
+    <t>blå</t>
+  </si>
+  <si>
+    <t>jeansblå</t>
+  </si>
+  <si>
+    <t>morgentåke</t>
+  </si>
+  <si>
+    <t>skogsgrønn</t>
+  </si>
+  <si>
+    <t>burgunder</t>
+  </si>
+  <si>
+    <t>sjøblå</t>
+  </si>
+  <si>
+    <t>gul</t>
+  </si>
+  <si>
+    <t>grå</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>bringebær</t>
+  </si>
+  <si>
+    <t>beige</t>
+  </si>
+  <si>
+    <t>sjøgrønn</t>
+  </si>
+  <si>
+    <t>gråblå</t>
+  </si>
+  <si>
+    <t>mauve</t>
+  </si>
+  <si>
+    <t>salvie grønn</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>blush</t>
+  </si>
+  <si>
+    <t>rosa sand</t>
+  </si>
+  <si>
+    <t>rosa marmor</t>
+  </si>
+  <si>
+    <t>leire</t>
+  </si>
+  <si>
+    <t>lys blå</t>
+  </si>
+  <si>
+    <t>blåfugl</t>
+  </si>
+  <si>
+    <t>elektrisk oransje</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>limonade</t>
+  </si>
+  <si>
+    <t>søt orkide</t>
+  </si>
+  <si>
+    <t>pistasjis</t>
+  </si>
+  <si>
+    <t>papegøyegrønn</t>
+  </si>
+  <si>
+    <t>crimson rød</t>
+  </si>
+  <si>
+    <t>nordsjøen</t>
+  </si>
+  <si>
+    <t>mørk oliven</t>
+  </si>
+  <si>
+    <t>oregano</t>
+  </si>
+  <si>
+    <t>antikk grønn</t>
+  </si>
+  <si>
+    <t>eikenøtt</t>
+  </si>
+  <si>
+    <t>ferskenrosa</t>
+  </si>
+  <si>
+    <t>ørkenrose</t>
+  </si>
+  <si>
+    <t>roseblad</t>
+  </si>
+  <si>
+    <t>jordbæris</t>
+  </si>
+  <si>
+    <t>søt aprikos</t>
+  </si>
+  <si>
+    <t>lys beige</t>
+  </si>
+  <si>
+    <t>kanel</t>
+  </si>
+  <si>
+    <t>kornblå</t>
+  </si>
+  <si>
+    <t>lys askebrun</t>
+  </si>
+  <si>
+    <t>lys grå</t>
+  </si>
+  <si>
+    <t>lys oliven</t>
+  </si>
+  <si>
+    <t>lys sjøgrønn</t>
+  </si>
+  <si>
+    <t>mørk askebrun</t>
+  </si>
+  <si>
+    <t>mørk grå</t>
+  </si>
+  <si>
+    <t>nougat</t>
+  </si>
+  <si>
+    <t>olivenmelert</t>
+  </si>
+  <si>
+    <t>peanøtt</t>
+  </si>
+  <si>
+    <t>perlehvit</t>
+  </si>
+  <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>rosa lavendel</t>
+  </si>
+  <si>
+    <t>rød</t>
+  </si>
+  <si>
+    <t>rødbrun</t>
+  </si>
+  <si>
+    <t>sennep</t>
+  </si>
+  <si>
+    <t>sitron</t>
+  </si>
+  <si>
+    <t>sjokolade</t>
+  </si>
+  <si>
+    <t>toffee</t>
+  </si>
+  <si>
+    <t>ametyst</t>
+  </si>
+  <si>
+    <t>bringebær rose</t>
+  </si>
+  <si>
+    <t>grønt gress</t>
+  </si>
+  <si>
+    <t>gulgrønn</t>
+  </si>
+  <si>
+    <t>hasselnøtt</t>
+  </si>
+  <si>
+    <t>havtåke</t>
+  </si>
+  <si>
+    <t>hvit</t>
+  </si>
+  <si>
+    <t>jordbærkrem</t>
+  </si>
+  <si>
+    <t>kamel</t>
+  </si>
+  <si>
+    <t>korall</t>
+  </si>
+  <si>
+    <t>lavendel frost</t>
+  </si>
+  <si>
+    <t>lys lavendel</t>
+  </si>
+  <si>
+    <t>lys nougat</t>
+  </si>
+  <si>
+    <t>lys perlegrå</t>
+  </si>
+  <si>
+    <t>malva</t>
+  </si>
+  <si>
+    <t>mandel</t>
+  </si>
+  <si>
+    <t>mineralblå</t>
+  </si>
+  <si>
+    <t>mørk blush</t>
+  </si>
+  <si>
+    <t>mørk eføy</t>
+  </si>
+  <si>
+    <t>mørk grønn</t>
+  </si>
+  <si>
+    <t>mørk indigo</t>
+  </si>
+  <si>
+    <t>mørk turkis</t>
+  </si>
+  <si>
+    <t>måneskinnsblå</t>
+  </si>
+  <si>
+    <t>oker</t>
+  </si>
+  <si>
+    <t>orangemelert</t>
+  </si>
+  <si>
+    <t>rødmelert</t>
+  </si>
+  <si>
+    <t>sitronpai</t>
+  </si>
+  <si>
+    <t>sterk lime</t>
+  </si>
+  <si>
+    <t>støvet orange</t>
+  </si>
+  <si>
+    <t>støvrosa</t>
+  </si>
+  <si>
+    <t>tomatrød</t>
+  </si>
+  <si>
+    <t>turkis</t>
+  </si>
+  <si>
+    <t>vildrose</t>
+  </si>
+  <si>
+    <t>vinrød</t>
+  </si>
+  <si>
+    <t>blå skumring</t>
+  </si>
+  <si>
+    <t>brostein</t>
+  </si>
+  <si>
+    <t>grønn</t>
+  </si>
+  <si>
+    <t>grålilla</t>
+  </si>
+  <si>
+    <t>isblå</t>
+  </si>
+  <si>
+    <t>kalk</t>
+  </si>
+  <si>
+    <t>kongeblå</t>
+  </si>
+  <si>
+    <t>tåkerosa</t>
+  </si>
+  <si>
+    <t>agategrønn</t>
+  </si>
+  <si>
+    <t>akvamarin</t>
+  </si>
+  <si>
+    <t>bark</t>
+  </si>
+  <si>
+    <t>bringebær sorbet</t>
+  </si>
+  <si>
+    <t>cookie dough</t>
+  </si>
+  <si>
+    <t>denim jeans</t>
+  </si>
+  <si>
+    <t>drue</t>
+  </si>
+  <si>
+    <t>enhjørning</t>
+  </si>
+  <si>
+    <t>fersken</t>
+  </si>
+  <si>
+    <t>forglemmegei</t>
+  </si>
+  <si>
+    <t>frostgrønn</t>
+  </si>
+  <si>
+    <t>gammelrosa</t>
+  </si>
+  <si>
+    <t>grizzlybjørn</t>
+  </si>
+  <si>
+    <t>grå tåke</t>
+  </si>
+  <si>
+    <t>gråbeige</t>
+  </si>
+  <si>
+    <t>gråbrun</t>
+  </si>
+  <si>
+    <t>guacamole</t>
+  </si>
+  <si>
+    <t>gull</t>
+  </si>
+  <si>
+    <t>gulrotkake</t>
+  </si>
+  <si>
+    <t>havdypet</t>
+  </si>
+  <si>
+    <t>havglass</t>
+  </si>
+  <si>
+    <t>hvit tåke</t>
+  </si>
+  <si>
+    <t>høyrød</t>
+  </si>
+  <si>
+    <t>karamell</t>
+  </si>
+  <si>
+    <t>karri</t>
+  </si>
+  <si>
+    <t>kastanje</t>
+  </si>
+  <si>
+    <t>kirsebær</t>
+  </si>
+  <si>
+    <t>kirsebær rød</t>
+  </si>
+  <si>
+    <t>kirsebærsorbet</t>
+  </si>
+  <si>
+    <t>koboltblå</t>
+  </si>
+  <si>
+    <t>lavendel</t>
+  </si>
+  <si>
+    <t>lilla</t>
+  </si>
+  <si>
+    <t>lys fersken</t>
+  </si>
+  <si>
+    <t>lys jeansblå</t>
+  </si>
+  <si>
+    <t>løvetann</t>
+  </si>
+  <si>
+    <t>mandelrose</t>
+  </si>
+  <si>
+    <t>marmor</t>
+  </si>
+  <si>
+    <t>marsipan</t>
+  </si>
+  <si>
+    <t>mintkrem</t>
+  </si>
+  <si>
+    <t>mocca</t>
+  </si>
+  <si>
+    <t>murstein</t>
+  </si>
+  <si>
+    <t>mørk blå</t>
+  </si>
+  <si>
+    <t>mørk blågrønn</t>
+  </si>
+  <si>
+    <t>mørk jeansblå</t>
+  </si>
+  <si>
+    <t>mørkegrå</t>
+  </si>
+  <si>
+    <t>oliven</t>
+  </si>
+  <si>
+    <t>pepperkorn</t>
+  </si>
+  <si>
+    <t>perle</t>
+  </si>
+  <si>
+    <t>pistasj</t>
+  </si>
+  <si>
+    <t>pudder</t>
+  </si>
+  <si>
+    <t>pudderrosa</t>
+  </si>
+  <si>
+    <t>purple rain</t>
+  </si>
+  <si>
+    <t>ravn</t>
+  </si>
+  <si>
+    <t>rosa/lilla</t>
+  </si>
+  <si>
+    <t>rosevann</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>rød murstein</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>sennepsgul</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>sitrongress</t>
+  </si>
+  <si>
+    <t>sjøstein</t>
+  </si>
+  <si>
+    <t>skjell</t>
+  </si>
+  <si>
+    <t>skogbrun</t>
+  </si>
+  <si>
+    <t>småstein</t>
+  </si>
+  <si>
+    <t>soft mint</t>
+  </si>
+  <si>
+    <t>spinatpai</t>
+  </si>
+  <si>
+    <t>sterk rosa</t>
+  </si>
+  <si>
+    <t>stormblå</t>
+  </si>
+  <si>
+    <t>støvet lilla</t>
+  </si>
+  <si>
+    <t>stålgrå</t>
+  </si>
+  <si>
+    <t>sølv</t>
+  </si>
+  <si>
+    <t>tranebær</t>
+  </si>
+  <si>
+    <t>tåkete syrin</t>
+  </si>
+  <si>
+    <t>vaniljegul</t>
+  </si>
+  <si>
+    <t>varm sjokolade</t>
   </si>
 </sst>
 </file>
@@ -155,16 +737,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +761,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,18 +1084,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E62667-B53A-47B5-909C-99FFC6F6CD8C}">
-  <dimension ref="A1:G417"/>
+  <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.90625" style="3"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,24 +1105,30 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="str">
         <f>"INSERT INTO garn_har_farge VALUES ('"&amp;A2&amp;"', '"&amp;B2&amp;"', "&amp;C2&amp;");"</f>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 1);</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -547,12 +1138,15 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D66" si="0">"INSERT INTO garn_har_farge VALUES ('"&amp;A3&amp;"', '"&amp;B3&amp;"', "&amp;C3&amp;");"</f>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E66" si="0">"INSERT INTO garn_har_farge VALUES ('"&amp;A3&amp;"', '"&amp;B3&amp;"', "&amp;C3&amp;");"</f>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 1);</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -562,223 +1156,267 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 1);</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca Boucle', 1);</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 1);</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 1);</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 1);</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 1);</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 1);</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 1);</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 1);</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Polaris', 1);</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 1);</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 1);</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 1);</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 1);</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 2);</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -788,12 +1426,15 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 2);</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -803,12 +1444,15 @@
       <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 2);</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -818,27 +1462,33 @@
       <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 2);</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5" t="str">
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 3);</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -848,12 +1498,15 @@
       <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="str">
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 3);</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -863,12 +1516,15 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="5" t="str">
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 3);</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -878,12 +1534,15 @@
       <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="D25" s="5" t="str">
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 3);</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -893,192 +1552,231 @@
       <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="5" t="str">
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 3);</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>4</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 4);</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="D28" s="5" t="str">
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 4);</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>4</v>
       </c>
-      <c r="D29" s="5" t="str">
+      <c r="D29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 4);</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>4</v>
       </c>
-      <c r="D30" s="5" t="str">
+      <c r="D30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Polaris', 4);</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>4</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 4);</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>5</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 5);</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>5</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 5);</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca Boucle', 5);</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>5</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 5);</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>5</v>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 5);</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>5</v>
       </c>
-      <c r="D37" s="5" t="str">
+      <c r="D37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 5);</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>5</v>
       </c>
-      <c r="D38" s="5" t="str">
+      <c r="D38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 5);</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -1088,12 +1786,15 @@
       <c r="C39" s="2">
         <v>6</v>
       </c>
-      <c r="D39" s="5" t="str">
+      <c r="D39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 6);</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
@@ -1103,12 +1804,15 @@
       <c r="C40" s="2">
         <v>6</v>
       </c>
-      <c r="D40" s="5" t="str">
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 6);</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1118,57 +1822,69 @@
       <c r="C41" s="2">
         <v>6</v>
       </c>
-      <c r="D41" s="5" t="str">
+      <c r="D41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 6);</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>7</v>
       </c>
-      <c r="D42" s="5" t="str">
+      <c r="D42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 7);</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>7</v>
       </c>
-      <c r="D43" s="5" t="str">
+      <c r="D43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Polaris', 7);</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>8</v>
       </c>
-      <c r="D44" s="5" t="str">
+      <c r="D44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 8);</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
@@ -1178,282 +1894,339 @@
       <c r="C45" s="2">
         <v>8</v>
       </c>
-      <c r="D45" s="5" t="str">
+      <c r="D45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 8);</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>8</v>
       </c>
-      <c r="D46" s="5" t="str">
+      <c r="D46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 8);</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>9</v>
       </c>
-      <c r="D47" s="5" t="str">
+      <c r="D47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 9);</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>9</v>
       </c>
-      <c r="D48" s="5" t="str">
+      <c r="D48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 9);</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>9</v>
       </c>
-      <c r="D49" s="5" t="str">
+      <c r="D49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 9);</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>9</v>
       </c>
-      <c r="D50" s="5" t="str">
+      <c r="D50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 9);</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>9</v>
       </c>
-      <c r="D51" s="5" t="str">
+      <c r="D51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 9);</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>9</v>
       </c>
-      <c r="D52" s="5" t="str">
+      <c r="D52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 9);</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>9</v>
       </c>
-      <c r="D53" s="5" t="str">
+      <c r="D53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 9);</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>9</v>
       </c>
-      <c r="D54" s="5" t="str">
+      <c r="D54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 9);</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>9</v>
       </c>
-      <c r="D55" s="5" t="str">
+      <c r="D55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 9);</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>9</v>
       </c>
-      <c r="D56" s="5" t="str">
+      <c r="D56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 9);</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>9</v>
       </c>
-      <c r="D57" s="5" t="str">
+      <c r="D57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 9);</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>9</v>
       </c>
-      <c r="D58" s="5" t="str">
+      <c r="D58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 9);</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>10</v>
       </c>
-      <c r="D59" s="5" t="str">
+      <c r="D59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 10);</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>10</v>
       </c>
-      <c r="D60" s="5" t="str">
+      <c r="D60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 10);</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>10</v>
       </c>
-      <c r="D61" s="5" t="str">
+      <c r="D61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 10);</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>10</v>
       </c>
-      <c r="D62" s="5" t="str">
+      <c r="D62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 10);</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>10</v>
       </c>
-      <c r="D63" s="5" t="str">
+      <c r="D63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 10);</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -1463,12 +2236,15 @@
       <c r="C64" s="2">
         <v>11</v>
       </c>
-      <c r="D64" s="5" t="str">
+      <c r="D64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 11);</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -1478,57 +2254,69 @@
       <c r="C65" s="2">
         <v>12</v>
       </c>
-      <c r="D65" s="5" t="str">
+      <c r="D65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 12);</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>12</v>
       </c>
-      <c r="D66" s="5" t="str">
+      <c r="D66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 12);</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>12</v>
       </c>
-      <c r="D67" s="5" t="str">
-        <f t="shared" ref="D67:D130" si="1">"INSERT INTO garn_har_farge VALUES ('"&amp;A67&amp;"', '"&amp;B67&amp;"', "&amp;C67&amp;");"</f>
+      <c r="D67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f t="shared" ref="E67:E130" si="1">"INSERT INTO garn_har_farge VALUES ('"&amp;A67&amp;"', '"&amp;B67&amp;"', "&amp;C67&amp;");"</f>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 12);</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>12</v>
       </c>
-      <c r="D68" s="5" t="str">
+      <c r="D68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 12);</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1538,27 +2326,33 @@
       <c r="C69" s="2">
         <v>13</v>
       </c>
-      <c r="D69" s="5" t="str">
+      <c r="D69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 13);</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>13</v>
       </c>
-      <c r="D70" s="5" t="str">
+      <c r="D70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 13);</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -1568,42 +2362,51 @@
       <c r="C71" s="2">
         <v>13</v>
       </c>
-      <c r="D71" s="5" t="str">
+      <c r="D71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 13);</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>14</v>
       </c>
-      <c r="D72" s="5" t="str">
+      <c r="D72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 14);</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>15</v>
       </c>
-      <c r="D73" s="5" t="str">
+      <c r="D73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 15);</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -1613,57 +2416,69 @@
       <c r="C74" s="2">
         <v>15</v>
       </c>
-      <c r="D74" s="5" t="str">
+      <c r="D74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 15);</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>16</v>
       </c>
-      <c r="D75" s="5" t="str">
+      <c r="D75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 16);</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>17</v>
       </c>
-      <c r="D76" s="5" t="str">
+      <c r="D76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 17);</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>17</v>
       </c>
-      <c r="D77" s="5" t="str">
+      <c r="D77" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 17);</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,12 +2488,15 @@
       <c r="C78" s="2">
         <v>17</v>
       </c>
-      <c r="D78" s="5" t="str">
+      <c r="D78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 17);</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -1688,12 +2506,15 @@
       <c r="C79" s="2">
         <v>17</v>
       </c>
-      <c r="D79" s="5" t="str">
+      <c r="D79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 17);</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -1703,12 +2524,15 @@
       <c r="C80" s="2">
         <v>17</v>
       </c>
-      <c r="D80" s="5" t="str">
+      <c r="D80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 17);</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -1718,12 +2542,15 @@
       <c r="C81" s="2">
         <v>17</v>
       </c>
-      <c r="D81" s="5" t="str">
+      <c r="D81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 17);</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -1733,12 +2560,15 @@
       <c r="C82" s="2">
         <v>17</v>
       </c>
-      <c r="D82" s="5" t="str">
+      <c r="D82" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 17);</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -1748,12 +2578,15 @@
       <c r="C83" s="2">
         <v>17</v>
       </c>
-      <c r="D83" s="5" t="str">
+      <c r="D83" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 17);</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -1763,12 +2596,15 @@
       <c r="C84" s="2">
         <v>17</v>
       </c>
-      <c r="D84" s="5" t="str">
+      <c r="D84" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 17);</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -1778,12 +2614,15 @@
       <c r="C85" s="2">
         <v>17</v>
       </c>
-      <c r="D85" s="5" t="str">
+      <c r="D85" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 17);</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1793,12 +2632,15 @@
       <c r="C86" s="2">
         <v>18</v>
       </c>
-      <c r="D86" s="5" t="str">
+      <c r="D86" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 18);</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -1808,12 +2650,15 @@
       <c r="C87" s="2">
         <v>19</v>
       </c>
-      <c r="D87" s="5" t="str">
+      <c r="D87" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 19);</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
@@ -1823,12 +2668,15 @@
       <c r="C88" s="2">
         <v>19</v>
       </c>
-      <c r="D88" s="5" t="str">
+      <c r="D88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 19);</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -1838,12 +2686,15 @@
       <c r="C89" s="2">
         <v>19</v>
       </c>
-      <c r="D89" s="5" t="str">
+      <c r="D89" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 19);</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -1853,12 +2704,15 @@
       <c r="C90" s="2">
         <v>19</v>
       </c>
-      <c r="D90" s="5" t="str">
+      <c r="D90" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 19);</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
@@ -1868,57 +2722,69 @@
       <c r="C91" s="2">
         <v>19</v>
       </c>
-      <c r="D91" s="5" t="str">
+      <c r="D91" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 19);</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>20</v>
       </c>
-      <c r="D92" s="5" t="str">
+      <c r="D92" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 20);</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>20</v>
       </c>
-      <c r="D93" s="5" t="str">
+      <c r="D93" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 20);</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>20</v>
       </c>
-      <c r="D94" s="5" t="str">
+      <c r="D94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 20);</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,12 +2794,15 @@
       <c r="C95" s="2">
         <v>21</v>
       </c>
-      <c r="D95" s="5" t="str">
+      <c r="D95" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 21);</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -1943,192 +2812,231 @@
       <c r="C96" s="2">
         <v>21</v>
       </c>
-      <c r="D96" s="5" t="str">
+      <c r="D96" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 21);</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>22</v>
       </c>
-      <c r="D97" s="5" t="str">
+      <c r="D97" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 22);</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>23</v>
       </c>
-      <c r="D98" s="5" t="str">
+      <c r="D98" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 23);</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>23</v>
       </c>
-      <c r="D99" s="5" t="str">
+      <c r="D99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca Boucle', 23);</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>23</v>
       </c>
-      <c r="D100" s="5" t="str">
+      <c r="D100" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 23);</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>23</v>
       </c>
-      <c r="D101" s="5" t="str">
+      <c r="D101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 23);</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>23</v>
       </c>
-      <c r="D102" s="5" t="str">
+      <c r="D102" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Delight', 23);</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>23</v>
       </c>
-      <c r="D103" s="5" t="str">
+      <c r="D103" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 23);</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>23</v>
       </c>
-      <c r="D104" s="5" t="str">
+      <c r="D104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 23);</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>23</v>
       </c>
-      <c r="D105" s="5" t="str">
+      <c r="D105" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 23);</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>23</v>
       </c>
-      <c r="D106" s="5" t="str">
+      <c r="D106" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 23);</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>23</v>
       </c>
-      <c r="D107" s="5" t="str">
+      <c r="D107" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 23);</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>24</v>
       </c>
-      <c r="D108" s="5" t="str">
+      <c r="D108" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 24);</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
@@ -2138,12 +3046,15 @@
       <c r="C109" s="2">
         <v>24</v>
       </c>
-      <c r="D109" s="5" t="str">
+      <c r="D109" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 24);</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
@@ -2153,27 +3064,33 @@
       <c r="C110" s="2">
         <v>25</v>
       </c>
-      <c r="D110" s="5" t="str">
+      <c r="D110" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 25);</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>26</v>
       </c>
-      <c r="D111" s="5" t="str">
+      <c r="D111" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 26);</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,12 +3100,15 @@
       <c r="C112" s="2">
         <v>26</v>
       </c>
-      <c r="D112" s="5" t="str">
+      <c r="D112" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 26);</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
@@ -2198,12 +3118,15 @@
       <c r="C113" s="2">
         <v>26</v>
       </c>
-      <c r="D113" s="5" t="str">
+      <c r="D113" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E113" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 26);</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -2213,12 +3136,15 @@
       <c r="C114" s="2">
         <v>26</v>
       </c>
-      <c r="D114" s="5" t="str">
+      <c r="D114" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 26);</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
@@ -2228,12 +3154,15 @@
       <c r="C115" s="2">
         <v>26</v>
       </c>
-      <c r="D115" s="5" t="str">
+      <c r="D115" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 26);</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
@@ -2243,12 +3172,15 @@
       <c r="C116" s="2">
         <v>26</v>
       </c>
-      <c r="D116" s="5" t="str">
+      <c r="D116" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 26);</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
@@ -2258,12 +3190,15 @@
       <c r="C117" s="2">
         <v>26</v>
       </c>
-      <c r="D117" s="5" t="str">
+      <c r="D117" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 26);</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
@@ -2273,12 +3208,15 @@
       <c r="C118" s="2">
         <v>26</v>
       </c>
-      <c r="D118" s="5" t="str">
+      <c r="D118" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 26);</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
@@ -2288,12 +3226,15 @@
       <c r="C119" s="2">
         <v>26</v>
       </c>
-      <c r="D119" s="5" t="str">
+      <c r="D119" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E119" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 26);</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
@@ -2303,87 +3244,105 @@
       <c r="C120" s="2">
         <v>27</v>
       </c>
-      <c r="D120" s="5" t="str">
+      <c r="D120" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E120" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 27);</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>27</v>
       </c>
-      <c r="D121" s="5" t="str">
+      <c r="D121" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 27);</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>27</v>
       </c>
-      <c r="D122" s="5" t="str">
+      <c r="D122" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E122" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 27);</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="3">
         <v>27</v>
       </c>
-      <c r="D123" s="5" t="str">
+      <c r="D123" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 27);</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="3">
         <v>27</v>
       </c>
-      <c r="D124" s="5" t="str">
+      <c r="D124" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 27);</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>28</v>
       </c>
-      <c r="D125" s="5" t="str">
+      <c r="D125" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E125" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 28);</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
@@ -2393,12 +3352,15 @@
       <c r="C126" s="2">
         <v>28</v>
       </c>
-      <c r="D126" s="5" t="str">
+      <c r="D126" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 28);</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
@@ -2408,12 +3370,15 @@
       <c r="C127" s="2">
         <v>29</v>
       </c>
-      <c r="D127" s="5" t="str">
+      <c r="D127" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 29);</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -2423,12 +3388,15 @@
       <c r="C128" s="2">
         <v>29</v>
       </c>
-      <c r="D128" s="5" t="str">
+      <c r="D128" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E128" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 29);</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -2438,12 +3406,15 @@
       <c r="C129" s="2">
         <v>30</v>
       </c>
-      <c r="D129" s="5" t="str">
+      <c r="D129" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 30);</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
@@ -2453,12 +3424,15 @@
       <c r="C130" s="2">
         <v>30</v>
       </c>
-      <c r="D130" s="5" t="str">
+      <c r="D130" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" s="4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 30);</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
@@ -2468,12 +3442,15 @@
       <c r="C131" s="2">
         <v>30</v>
       </c>
-      <c r="D131" s="5" t="str">
-        <f t="shared" ref="D131:D194" si="2">"INSERT INTO garn_har_farge VALUES ('"&amp;A131&amp;"', '"&amp;B131&amp;"', "&amp;C131&amp;");"</f>
+      <c r="D131" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="4" t="str">
+        <f t="shared" ref="E131:E194" si="2">"INSERT INTO garn_har_farge VALUES ('"&amp;A131&amp;"', '"&amp;B131&amp;"', "&amp;C131&amp;");"</f>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 30);</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
@@ -2483,12 +3460,15 @@
       <c r="C132" s="2">
         <v>30</v>
       </c>
-      <c r="D132" s="5" t="str">
+      <c r="D132" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 30);</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
@@ -2498,12 +3478,15 @@
       <c r="C133" s="2">
         <v>31</v>
       </c>
-      <c r="D133" s="5" t="str">
+      <c r="D133" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 31);</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
@@ -2513,12 +3496,15 @@
       <c r="C134" s="2">
         <v>31</v>
       </c>
-      <c r="D134" s="5" t="str">
+      <c r="D134" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 31);</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -2528,12 +3514,15 @@
       <c r="C135" s="2">
         <v>31</v>
       </c>
-      <c r="D135" s="5" t="str">
+      <c r="D135" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 31);</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
@@ -2543,12 +3532,15 @@
       <c r="C136" s="2">
         <v>31</v>
       </c>
-      <c r="D136" s="5" t="str">
+      <c r="D136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca Boucle', 31);</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
@@ -2558,12 +3550,15 @@
       <c r="C137" s="2">
         <v>31</v>
       </c>
-      <c r="D137" s="5" t="str">
+      <c r="D137" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 31);</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
@@ -2573,12 +3568,15 @@
       <c r="C138" s="2">
         <v>31</v>
       </c>
-      <c r="D138" s="5" t="str">
+      <c r="D138" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 31);</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,12 +3586,15 @@
       <c r="C139" s="2">
         <v>31</v>
       </c>
-      <c r="D139" s="5" t="str">
+      <c r="D139" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 31);</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
@@ -2603,12 +3604,15 @@
       <c r="C140" s="2">
         <v>31</v>
       </c>
-      <c r="D140" s="5" t="str">
+      <c r="D140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 31);</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
@@ -2618,12 +3622,15 @@
       <c r="C141" s="2">
         <v>31</v>
       </c>
-      <c r="D141" s="5" t="str">
+      <c r="D141" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 31);</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -2633,12 +3640,15 @@
       <c r="C142" s="2">
         <v>31</v>
       </c>
-      <c r="D142" s="5" t="str">
+      <c r="D142" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 31);</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
@@ -2648,12 +3658,15 @@
       <c r="C143" s="2">
         <v>31</v>
       </c>
-      <c r="D143" s="5" t="str">
+      <c r="D143" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Polaris', 31);</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
@@ -2663,12 +3676,15 @@
       <c r="C144" s="2">
         <v>31</v>
       </c>
-      <c r="D144" s="5" t="str">
+      <c r="D144" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 31);</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
@@ -2678,12 +3694,15 @@
       <c r="C145" s="2">
         <v>31</v>
       </c>
-      <c r="D145" s="5" t="str">
+      <c r="D145" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 31);</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
@@ -2693,12 +3712,15 @@
       <c r="C146" s="2">
         <v>31</v>
       </c>
-      <c r="D146" s="5" t="str">
+      <c r="D146" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 31);</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
@@ -2708,12 +3730,15 @@
       <c r="C147" s="2">
         <v>32</v>
       </c>
-      <c r="D147" s="5" t="str">
+      <c r="D147" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E147" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 32);</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>3</v>
       </c>
@@ -2723,12 +3748,15 @@
       <c r="C148" s="2">
         <v>32</v>
       </c>
-      <c r="D148" s="5" t="str">
+      <c r="D148" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E148" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 32);</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -2738,12 +3766,15 @@
       <c r="C149" s="2">
         <v>32</v>
       </c>
-      <c r="D149" s="5" t="str">
+      <c r="D149" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 32);</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
@@ -2753,12 +3784,15 @@
       <c r="C150" s="2">
         <v>33</v>
       </c>
-      <c r="D150" s="5" t="str">
+      <c r="D150" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 33);</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
@@ -2768,12 +3802,15 @@
       <c r="C151" s="2">
         <v>34</v>
       </c>
-      <c r="D151" s="5" t="str">
+      <c r="D151" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E151" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 34);</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,87 +3820,105 @@
       <c r="C152" s="2">
         <v>35</v>
       </c>
-      <c r="D152" s="5" t="str">
+      <c r="D152" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E152" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 35);</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="3">
         <v>36</v>
       </c>
-      <c r="D153" s="5" t="str">
+      <c r="D153" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E153" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 36);</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="3">
         <v>36</v>
       </c>
-      <c r="D154" s="5" t="str">
+      <c r="D154" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 36);</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="3">
         <v>36</v>
       </c>
-      <c r="D155" s="5" t="str">
+      <c r="D155" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E155" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 36);</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="3">
         <v>36</v>
       </c>
-      <c r="D156" s="5" t="str">
+      <c r="D156" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E156" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 36);</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="3">
         <v>37</v>
       </c>
-      <c r="D157" s="5" t="str">
+      <c r="D157" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E157" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 37);</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
@@ -2873,27 +3928,33 @@
       <c r="C158" s="2">
         <v>38</v>
       </c>
-      <c r="D158" s="5" t="str">
+      <c r="D158" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E158" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 38);</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="3">
         <v>39</v>
       </c>
-      <c r="D159" s="5" t="str">
+      <c r="D159" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 39);</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>3</v>
       </c>
@@ -2903,27 +3964,33 @@
       <c r="C160" s="2">
         <v>39</v>
       </c>
-      <c r="D160" s="5" t="str">
+      <c r="D160" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E160" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 39);</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="3">
         <v>40</v>
       </c>
-      <c r="D161" s="5" t="str">
+      <c r="D161" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 40);</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>3</v>
       </c>
@@ -2933,102 +4000,123 @@
       <c r="C162" s="2">
         <v>40</v>
       </c>
-      <c r="D162" s="5" t="str">
+      <c r="D162" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 40);</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="3">
         <v>40</v>
       </c>
-      <c r="D163" s="5" t="str">
+      <c r="D163" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 40);</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="3">
         <v>41</v>
       </c>
-      <c r="D164" s="5" t="str">
+      <c r="D164" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E164" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 41);</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="3">
         <v>41</v>
       </c>
-      <c r="D165" s="5" t="str">
+      <c r="D165" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E165" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 41);</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="3">
         <v>41</v>
       </c>
-      <c r="D166" s="5" t="str">
+      <c r="D166" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E166" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 41);</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="3">
         <v>41</v>
       </c>
-      <c r="D167" s="5" t="str">
+      <c r="D167" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E167" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 41);</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="3">
         <v>41</v>
       </c>
-      <c r="D168" s="5" t="str">
+      <c r="D168" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E168" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 41);</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
@@ -3038,87 +4126,105 @@
       <c r="C169" s="2">
         <v>42</v>
       </c>
-      <c r="D169" s="5" t="str">
+      <c r="D169" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E169" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 42);</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="3">
         <v>42</v>
       </c>
-      <c r="D170" s="5" t="str">
+      <c r="D170" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E170" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 42);</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>42</v>
       </c>
-      <c r="D171" s="5" t="str">
+      <c r="D171" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E171" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 42);</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>42</v>
       </c>
-      <c r="D172" s="5" t="str">
+      <c r="D172" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E172" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 42);</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>42</v>
       </c>
-      <c r="D173" s="5" t="str">
+      <c r="D173" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E173" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 42);</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>42</v>
       </c>
-      <c r="D174" s="5" t="str">
+      <c r="D174" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E174" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 42);</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>3</v>
       </c>
@@ -3128,12 +4234,15 @@
       <c r="C175" s="2">
         <v>43</v>
       </c>
-      <c r="D175" s="5" t="str">
+      <c r="D175" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 43);</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
@@ -3143,12 +4252,15 @@
       <c r="C176" s="2">
         <v>43</v>
       </c>
-      <c r="D176" s="5" t="str">
+      <c r="D176" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E176" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 43);</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
@@ -3158,12 +4270,15 @@
       <c r="C177" s="2">
         <v>43</v>
       </c>
-      <c r="D177" s="5" t="str">
+      <c r="D177" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 43);</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,12 +4288,15 @@
       <c r="C178" s="2">
         <v>44</v>
       </c>
-      <c r="D178" s="5" t="str">
+      <c r="D178" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E178" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 44);</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>3</v>
       </c>
@@ -3188,12 +4306,15 @@
       <c r="C179" s="2">
         <v>45</v>
       </c>
-      <c r="D179" s="5" t="str">
+      <c r="D179" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 45);</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>3</v>
       </c>
@@ -3203,12 +4324,15 @@
       <c r="C180" s="2">
         <v>45</v>
       </c>
-      <c r="D180" s="5" t="str">
+      <c r="D180" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 45);</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>3</v>
       </c>
@@ -3218,12 +4342,15 @@
       <c r="C181" s="2">
         <v>46</v>
       </c>
-      <c r="D181" s="5" t="str">
+      <c r="D181" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E181" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 46);</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>3</v>
       </c>
@@ -3233,12 +4360,15 @@
       <c r="C182" s="2">
         <v>47</v>
       </c>
-      <c r="D182" s="5" t="str">
+      <c r="D182" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E182" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 47);</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>3</v>
       </c>
@@ -3248,27 +4378,33 @@
       <c r="C183" s="2">
         <v>48</v>
       </c>
-      <c r="D183" s="5" t="str">
+      <c r="D183" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E183" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 48);</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="3">
         <v>49</v>
       </c>
-      <c r="D184" s="5" t="str">
+      <c r="D184" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 49);</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>3</v>
       </c>
@@ -3278,12 +4414,15 @@
       <c r="C185" s="2">
         <v>50</v>
       </c>
-      <c r="D185" s="5" t="str">
+      <c r="D185" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E185" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 50);</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>3</v>
       </c>
@@ -3293,12 +4432,15 @@
       <c r="C186" s="2">
         <v>50</v>
       </c>
-      <c r="D186" s="5" t="str">
+      <c r="D186" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E186" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 50);</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>3</v>
       </c>
@@ -3308,462 +4450,555 @@
       <c r="C187" s="2">
         <v>51</v>
       </c>
-      <c r="D187" s="5" t="str">
+      <c r="D187" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E187" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 51);</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="3">
         <v>52</v>
       </c>
-      <c r="D188" s="5" t="str">
+      <c r="D188" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E188" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 52);</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="3">
         <v>52</v>
       </c>
-      <c r="D189" s="5" t="str">
+      <c r="D189" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E189" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 52);</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="3">
         <v>53</v>
       </c>
-      <c r="D190" s="5" t="str">
+      <c r="D190" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E190" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 53);</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="3">
         <v>54</v>
       </c>
-      <c r="D191" s="5" t="str">
+      <c r="D191" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E191" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 54);</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="3">
         <v>55</v>
       </c>
-      <c r="D192" s="5" t="str">
+      <c r="D192" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E192" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Air', 55);</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="3">
         <v>55</v>
       </c>
-      <c r="D193" s="5" t="str">
+      <c r="D193" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E193" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca Boucle', 55);</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="3">
         <v>55</v>
       </c>
-      <c r="D194" s="5" t="str">
+      <c r="D194" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E194" s="4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 55);</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="3">
         <v>55</v>
       </c>
-      <c r="D195" s="5" t="str">
-        <f t="shared" ref="D195:D258" si="3">"INSERT INTO garn_har_farge VALUES ('"&amp;A195&amp;"', '"&amp;B195&amp;"', "&amp;C195&amp;");"</f>
+      <c r="D195" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E195" s="4" t="str">
+        <f t="shared" ref="E195:E258" si="3">"INSERT INTO garn_har_farge VALUES ('"&amp;A195&amp;"', '"&amp;B195&amp;"', "&amp;C195&amp;");"</f>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 55);</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="3">
         <v>55</v>
       </c>
-      <c r="D196" s="5" t="str">
+      <c r="D196" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E196" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 55);</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="3">
         <v>55</v>
       </c>
-      <c r="D197" s="5" t="str">
+      <c r="D197" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E197" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 55);</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="3">
         <v>55</v>
       </c>
-      <c r="D198" s="5" t="str">
+      <c r="D198" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E198" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Polaris', 55);</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="3">
         <v>56</v>
       </c>
-      <c r="D199" s="5" t="str">
+      <c r="D199" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E199" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 56);</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="3">
         <v>57</v>
       </c>
-      <c r="D200" s="5" t="str">
+      <c r="D200" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E200" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 57);</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="3">
         <v>58</v>
       </c>
-      <c r="D201" s="5" t="str">
+      <c r="D201" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E201" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 58);</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="3">
         <v>59</v>
       </c>
-      <c r="D202" s="5" t="str">
+      <c r="D202" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E202" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 59);</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="3">
         <v>59</v>
       </c>
-      <c r="D203" s="5" t="str">
+      <c r="D203" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E203" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 59);</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="3">
         <v>59</v>
       </c>
-      <c r="D204" s="5" t="str">
+      <c r="D204" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E204" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca Boucle', 59);</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="3">
         <v>59</v>
       </c>
-      <c r="D205" s="5" t="str">
+      <c r="D205" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E205" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 59);</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="3">
         <v>59</v>
       </c>
-      <c r="D206" s="5" t="str">
+      <c r="D206" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E206" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 59);</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="3">
         <v>59</v>
       </c>
-      <c r="D207" s="5" t="str">
+      <c r="D207" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E207" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 59);</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="3">
         <v>59</v>
       </c>
-      <c r="D208" s="5" t="str">
+      <c r="D208" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E208" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 59);</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="3">
         <v>59</v>
       </c>
-      <c r="D209" s="5" t="str">
+      <c r="D209" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E209" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 59);</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="3">
         <v>59</v>
       </c>
-      <c r="D210" s="5" t="str">
+      <c r="D210" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E210" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 59);</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="3">
         <v>59</v>
       </c>
-      <c r="D211" s="5" t="str">
+      <c r="D211" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E211" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 59);</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="3">
         <v>60</v>
       </c>
-      <c r="D212" s="5" t="str">
+      <c r="D212" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E212" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 60);</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="3">
         <v>61</v>
       </c>
-      <c r="D213" s="5" t="str">
+      <c r="D213" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E213" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 61);</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="3">
         <v>61</v>
       </c>
-      <c r="D214" s="5" t="str">
+      <c r="D214" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E214" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 61);</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215" s="3">
         <v>61</v>
       </c>
-      <c r="D215" s="5" t="str">
+      <c r="D215" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E215" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 61);</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="3">
         <v>62</v>
       </c>
-      <c r="D216" s="5" t="str">
+      <c r="D216" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E216" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 62);</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="3">
         <v>63</v>
       </c>
-      <c r="D217" s="5" t="str">
+      <c r="D217" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E217" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 63);</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>3</v>
       </c>
@@ -3773,102 +5008,123 @@
       <c r="C218" s="2">
         <v>63</v>
       </c>
-      <c r="D218" s="5" t="str">
+      <c r="D218" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E218" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 63);</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="3">
         <v>63</v>
       </c>
-      <c r="D219" s="5" t="str">
+      <c r="D219" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E219" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 63);</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="3">
         <v>63</v>
       </c>
-      <c r="D220" s="5" t="str">
+      <c r="D220" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E220" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 63);</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="3">
         <v>63</v>
       </c>
-      <c r="D221" s="5" t="str">
+      <c r="D221" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E221" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 63);</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="3">
         <v>63</v>
       </c>
-      <c r="D222" s="5" t="str">
+      <c r="D222" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E222" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Polaris', 63);</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="3">
         <v>63</v>
       </c>
-      <c r="D223" s="5" t="str">
+      <c r="D223" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E223" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 63);</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="3">
         <v>64</v>
       </c>
-      <c r="D224" s="5" t="str">
+      <c r="D224" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E224" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 64);</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>3</v>
       </c>
@@ -3878,12 +5134,15 @@
       <c r="C225" s="2">
         <v>64</v>
       </c>
-      <c r="D225" s="5" t="str">
+      <c r="D225" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E225" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 64);</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>3</v>
       </c>
@@ -3893,357 +5152,429 @@
       <c r="C226" s="2">
         <v>64</v>
       </c>
-      <c r="D226" s="5" t="str">
+      <c r="D226" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E226" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 64);</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="3">
         <v>65</v>
       </c>
-      <c r="D227" s="5" t="str">
+      <c r="D227" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E227" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 65);</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228" s="3">
         <v>66</v>
       </c>
-      <c r="D228" s="5" t="str">
+      <c r="D228" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E228" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 66);</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="3">
         <v>67</v>
       </c>
-      <c r="D229" s="5" t="str">
+      <c r="D229" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 67);</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="3">
         <v>68</v>
       </c>
-      <c r="D230" s="5" t="str">
+      <c r="D230" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E230" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 68);</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="3">
         <v>68</v>
       </c>
-      <c r="D231" s="5" t="str">
+      <c r="D231" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E231" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 68);</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="3">
         <v>68</v>
       </c>
-      <c r="D232" s="5" t="str">
+      <c r="D232" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E232" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 68);</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="3">
         <v>68</v>
       </c>
-      <c r="D233" s="5" t="str">
+      <c r="D233" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E233" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 68);</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="3">
         <v>69</v>
       </c>
-      <c r="D234" s="5" t="str">
+      <c r="D234" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E234" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 69);</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="3">
         <v>70</v>
       </c>
-      <c r="D235" s="5" t="str">
+      <c r="D235" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E235" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 70);</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="3">
         <v>70</v>
       </c>
-      <c r="D236" s="5" t="str">
+      <c r="D236" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E236" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 70);</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="3">
         <v>70</v>
       </c>
-      <c r="D237" s="5" t="str">
+      <c r="D237" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E237" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 70);</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="3">
         <v>70</v>
       </c>
-      <c r="D238" s="5" t="str">
+      <c r="D238" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E238" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Glitter', 70);</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="3">
         <v>70</v>
       </c>
-      <c r="D239" s="5" t="str">
+      <c r="D239" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E239" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 70);</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240" s="3">
         <v>70</v>
       </c>
-      <c r="D240" s="5" t="str">
+      <c r="D240" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E240" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 70);</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="3">
         <v>71</v>
       </c>
-      <c r="D241" s="5" t="str">
+      <c r="D241" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E241" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 71);</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242" s="3">
         <v>71</v>
       </c>
-      <c r="D242" s="5" t="str">
+      <c r="D242" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E242" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 71);</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="3">
         <v>72</v>
       </c>
-      <c r="D243" s="5" t="str">
+      <c r="D243" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E243" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 72);</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244" s="3">
         <v>72</v>
       </c>
-      <c r="D244" s="5" t="str">
+      <c r="D244" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E244" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 72);</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245" s="3">
         <v>72</v>
       </c>
-      <c r="D245" s="5" t="str">
+      <c r="D245" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E245" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 72);</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246" s="3">
         <v>73</v>
       </c>
-      <c r="D246" s="5" t="str">
+      <c r="D246" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E246" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 73);</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247" s="3">
         <v>74</v>
       </c>
-      <c r="D247" s="5" t="str">
+      <c r="D247" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E247" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 74);</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="3">
         <v>75</v>
       </c>
-      <c r="D248" s="5" t="str">
+      <c r="D248" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E248" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alaska', 75);</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249" s="3">
         <v>76</v>
       </c>
-      <c r="D249" s="5" t="str">
+      <c r="D249" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E249" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 76);</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>3</v>
       </c>
@@ -4253,252 +5584,303 @@
       <c r="C250" s="2">
         <v>76</v>
       </c>
-      <c r="D250" s="5" t="str">
+      <c r="D250" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E250" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 76);</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="3">
         <v>77</v>
       </c>
-      <c r="D251" s="5" t="str">
+      <c r="D251" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E251" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 77);</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252" s="3">
         <v>78</v>
       </c>
-      <c r="D252" s="5" t="str">
+      <c r="D252" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E252" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 78);</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253" s="3">
         <v>79</v>
       </c>
-      <c r="D253" s="5" t="str">
+      <c r="D253" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E253" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 79);</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254" s="3">
         <v>80</v>
       </c>
-      <c r="D254" s="5" t="str">
+      <c r="D254" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E254" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 80);</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255" s="3">
         <v>80</v>
       </c>
-      <c r="D255" s="5" t="str">
+      <c r="D255" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E255" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 80);</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256" s="3">
         <v>81</v>
       </c>
-      <c r="D256" s="5" t="str">
+      <c r="D256" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E256" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 81);</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257" s="3">
         <v>82</v>
       </c>
-      <c r="D257" s="5" t="str">
+      <c r="D257" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E257" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 82);</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258" s="3">
         <v>82</v>
       </c>
-      <c r="D258" s="5" t="str">
+      <c r="D258" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E258" s="4" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 82);</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259" s="3">
         <v>82</v>
       </c>
-      <c r="D259" s="5" t="str">
-        <f t="shared" ref="D259:D322" si="4">"INSERT INTO garn_har_farge VALUES ('"&amp;A259&amp;"', '"&amp;B259&amp;"', "&amp;C259&amp;");"</f>
+      <c r="D259" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E259" s="4" t="str">
+        <f t="shared" ref="E259:E322" si="4">"INSERT INTO garn_har_farge VALUES ('"&amp;A259&amp;"', '"&amp;B259&amp;"', "&amp;C259&amp;");"</f>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 82);</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260" s="3">
         <v>82</v>
       </c>
-      <c r="D260" s="5" t="str">
+      <c r="D260" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E260" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 82);</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261" s="3">
         <v>82</v>
       </c>
-      <c r="D261" s="5" t="str">
+      <c r="D261" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E261" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 82);</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262" s="3">
         <v>82</v>
       </c>
-      <c r="D262" s="5" t="str">
+      <c r="D262" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E262" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 82);</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263" s="3">
         <v>83</v>
       </c>
-      <c r="D263" s="5" t="str">
+      <c r="D263" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E263" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 83);</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264" s="3">
         <v>83</v>
       </c>
-      <c r="D264" s="5" t="str">
+      <c r="D264" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E264" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 83);</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265" s="3">
         <v>84</v>
       </c>
-      <c r="D265" s="5" t="str">
+      <c r="D265" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E265" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 84);</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="3">
         <v>85</v>
       </c>
-      <c r="D266" s="5" t="str">
+      <c r="D266" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E266" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 85);</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>3</v>
       </c>
@@ -4508,117 +5890,141 @@
       <c r="C267" s="2">
         <v>85</v>
       </c>
-      <c r="D267" s="5" t="str">
+      <c r="D267" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E267" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 85);</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="3">
         <v>86</v>
       </c>
-      <c r="D268" s="5" t="str">
+      <c r="D268" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E268" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 86);</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="3">
         <v>87</v>
       </c>
-      <c r="D269" s="5" t="str">
+      <c r="D269" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E269" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 87);</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="3">
         <v>87</v>
       </c>
-      <c r="D270" s="5" t="str">
+      <c r="D270" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E270" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 87);</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="3">
         <v>88</v>
       </c>
-      <c r="D271" s="5" t="str">
+      <c r="D271" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E271" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 88);</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="3">
         <v>88</v>
       </c>
-      <c r="D272" s="5" t="str">
+      <c r="D272" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E272" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 88);</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273" s="3">
         <v>89</v>
       </c>
-      <c r="D273" s="5" t="str">
+      <c r="D273" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E273" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 89);</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274" s="3">
         <v>90</v>
       </c>
-      <c r="D274" s="5" t="str">
+      <c r="D274" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E274" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 90);</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -4628,222 +6034,267 @@
       <c r="C275" s="2">
         <v>90</v>
       </c>
-      <c r="D275" s="5" t="str">
+      <c r="D275" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E275" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 90);</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276" s="3">
         <v>91</v>
       </c>
-      <c r="D276" s="5" t="str">
+      <c r="D276" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E276" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 91);</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277" s="3">
         <v>91</v>
       </c>
-      <c r="D277" s="5" t="str">
+      <c r="D277" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E277" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 91);</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278" s="3">
         <v>91</v>
       </c>
-      <c r="D278" s="5" t="str">
+      <c r="D278" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E278" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 91);</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279" s="3">
         <v>91</v>
       </c>
-      <c r="D279" s="5" t="str">
+      <c r="D279" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E279" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 91);</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280" s="3">
         <v>92</v>
       </c>
-      <c r="D280" s="5" t="str">
+      <c r="D280" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E280" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 92);</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281" s="3">
         <v>93</v>
       </c>
-      <c r="D281" s="5" t="str">
+      <c r="D281" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E281" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 93);</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282" s="3">
         <v>94</v>
       </c>
-      <c r="D282" s="5" t="str">
+      <c r="D282" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E282" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 94);</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283" s="3">
         <v>94</v>
       </c>
-      <c r="D283" s="5" t="str">
+      <c r="D283" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E283" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 94);</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284" s="3">
         <v>95</v>
       </c>
-      <c r="D284" s="5" t="str">
+      <c r="D284" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E284" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 95);</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285" s="3">
         <v>95</v>
       </c>
-      <c r="D285" s="5" t="str">
+      <c r="D285" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E285" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 95);</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286" s="3">
         <v>96</v>
       </c>
-      <c r="D286" s="5" t="str">
+      <c r="D286" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E286" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 96);</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287" s="3">
         <v>97</v>
       </c>
-      <c r="D287" s="5" t="str">
+      <c r="D287" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E287" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 97);</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288" s="3">
         <v>98</v>
       </c>
-      <c r="D288" s="5" t="str">
+      <c r="D288" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E288" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 98);</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289" s="3">
         <v>99</v>
       </c>
-      <c r="D289" s="5" t="str">
+      <c r="D289" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E289" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 99);</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>3</v>
       </c>
@@ -4853,267 +6304,321 @@
       <c r="C290" s="2">
         <v>99</v>
       </c>
-      <c r="D290" s="5" t="str">
+      <c r="D290" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E290" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 99);</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291" s="3">
         <v>100</v>
       </c>
-      <c r="D291" s="5" t="str">
+      <c r="D291" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E291" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 100);</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292" s="3">
         <v>101</v>
       </c>
-      <c r="D292" s="5" t="str">
+      <c r="D292" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E292" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 101);</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293" s="3">
         <v>102</v>
       </c>
-      <c r="D293" s="5" t="str">
+      <c r="D293" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E293" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 102);</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294" s="3">
         <v>102</v>
       </c>
-      <c r="D294" s="5" t="str">
+      <c r="D294" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E294" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 102);</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295" s="3">
         <v>103</v>
       </c>
-      <c r="D295" s="5" t="str">
+      <c r="D295" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E295" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 103);</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296" s="3">
         <v>104</v>
       </c>
-      <c r="D296" s="5" t="str">
+      <c r="D296" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E296" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 104);</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297" s="3">
         <v>105</v>
       </c>
-      <c r="D297" s="5" t="str">
+      <c r="D297" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E297" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 105);</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298" s="3">
         <v>105</v>
       </c>
-      <c r="D298" s="5" t="str">
+      <c r="D298" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E298" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 105);</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299" s="3">
         <v>105</v>
       </c>
-      <c r="D299" s="5" t="str">
+      <c r="D299" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E299" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 105);</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300" s="3">
         <v>105</v>
       </c>
-      <c r="D300" s="5" t="str">
+      <c r="D300" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E300" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 105);</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301" s="3">
         <v>105</v>
       </c>
-      <c r="D301" s="5" t="str">
+      <c r="D301" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E301" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 105);</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="3">
         <v>106</v>
       </c>
-      <c r="D302" s="5" t="str">
+      <c r="D302" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E302" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 106);</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303" s="3">
         <v>107</v>
       </c>
-      <c r="D303" s="5" t="str">
+      <c r="D303" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E303" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 107);</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304" s="3">
         <v>108</v>
       </c>
-      <c r="D304" s="5" t="str">
+      <c r="D304" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E304" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 108);</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305" s="3">
         <v>109</v>
       </c>
-      <c r="D305" s="5" t="str">
+      <c r="D305" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E305" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Alpaca', 109);</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306" s="3">
         <v>110</v>
       </c>
-      <c r="D306" s="5" t="str">
+      <c r="D306" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E306" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 110);</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307" s="3">
         <v>111</v>
       </c>
-      <c r="D307" s="5" t="str">
+      <c r="D307" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E307" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 111);</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>3</v>
       </c>
@@ -5123,1642 +6628,1972 @@
       <c r="C308" s="2">
         <v>111</v>
       </c>
-      <c r="D308" s="5" t="str">
+      <c r="D308" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E308" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 111);</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309" s="3">
         <v>112</v>
       </c>
-      <c r="D309" s="5" t="str">
+      <c r="D309" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E309" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 112);</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310" s="3">
         <v>113</v>
       </c>
-      <c r="D310" s="5" t="str">
+      <c r="D310" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E310" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 113);</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311" s="3">
         <v>114</v>
       </c>
-      <c r="D311" s="5" t="str">
+      <c r="D311" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E311" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 114);</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312" s="3">
         <v>114</v>
       </c>
-      <c r="D312" s="5" t="str">
+      <c r="D312" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E312" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 114);</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313" s="3">
         <v>114</v>
       </c>
-      <c r="D313" s="5" t="str">
+      <c r="D313" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E313" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 114);</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314" s="3">
         <v>114</v>
       </c>
-      <c r="D314" s="5" t="str">
+      <c r="D314" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E314" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 114);</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315" s="3">
         <v>114</v>
       </c>
-      <c r="D315" s="5" t="str">
+      <c r="D315" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E315" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 114);</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316" s="3">
         <v>115</v>
       </c>
-      <c r="D316" s="5" t="str">
+      <c r="D316" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E316" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 115);</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317" s="3">
         <v>116</v>
       </c>
-      <c r="D317" s="5" t="str">
+      <c r="D317" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E317" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 116);</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318" s="3">
         <v>117</v>
       </c>
-      <c r="D318" s="5" t="str">
+      <c r="D318" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E318" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Andes', 117);</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319" s="3">
         <v>118</v>
       </c>
-      <c r="D319" s="5" t="str">
+      <c r="D319" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E319" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 118);</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320" s="3">
         <v>119</v>
       </c>
-      <c r="D320" s="5" t="str">
+      <c r="D320" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E320" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 119);</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321" s="3">
         <v>119</v>
       </c>
-      <c r="D321" s="5" t="str">
+      <c r="D321" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E321" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 119);</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322" s="3">
         <v>120</v>
       </c>
-      <c r="D322" s="5" t="str">
+      <c r="D322" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E322" s="4" t="str">
         <f t="shared" si="4"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Polaris', 120);</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323" s="3">
         <v>121</v>
       </c>
-      <c r="D323" s="5" t="str">
-        <f t="shared" ref="D323:D386" si="5">"INSERT INTO garn_har_farge VALUES ('"&amp;A323&amp;"', '"&amp;B323&amp;"', "&amp;C323&amp;");"</f>
+      <c r="D323" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E323" s="4" t="str">
+        <f t="shared" ref="E323:E386" si="5">"INSERT INTO garn_har_farge VALUES ('"&amp;A323&amp;"', '"&amp;B323&amp;"', "&amp;C323&amp;");"</f>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 121);</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324" s="3">
         <v>122</v>
       </c>
-      <c r="D324" s="5" t="str">
+      <c r="D324" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E324" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 122);</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325" s="3">
         <v>123</v>
       </c>
-      <c r="D325" s="5" t="str">
+      <c r="D325" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E325" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 123);</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326" s="3">
         <v>124</v>
       </c>
-      <c r="D326" s="5" t="str">
+      <c r="D326" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E326" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 124);</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327" s="3">
         <v>125</v>
       </c>
-      <c r="D327" s="5" t="str">
+      <c r="D327" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E327" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 125);</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328" s="3">
         <v>126</v>
       </c>
-      <c r="D328" s="5" t="str">
+      <c r="D328" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E328" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 126);</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329" s="3">
         <v>127</v>
       </c>
-      <c r="D329" s="5" t="str">
+      <c r="D329" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E329" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 127);</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330" s="3">
         <v>128</v>
       </c>
-      <c r="D330" s="5" t="str">
+      <c r="D330" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E330" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 128);</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331" s="3">
         <v>129</v>
       </c>
-      <c r="D331" s="5" t="str">
+      <c r="D331" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E331" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 129);</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332" s="3">
         <v>129</v>
       </c>
-      <c r="D332" s="5" t="str">
+      <c r="D332" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E332" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 129);</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333" s="3">
         <v>130</v>
       </c>
-      <c r="D333" s="5" t="str">
+      <c r="D333" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E333" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 130);</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334" s="3">
         <v>131</v>
       </c>
-      <c r="D334" s="5" t="str">
+      <c r="D334" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E334" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 131);</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335" s="3">
         <v>132</v>
       </c>
-      <c r="D335" s="5" t="str">
+      <c r="D335" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E335" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 132);</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336" s="3">
         <v>132</v>
       </c>
-      <c r="D336" s="5" t="str">
+      <c r="D336" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E336" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 132);</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337" s="3">
         <v>133</v>
       </c>
-      <c r="D337" s="5" t="str">
+      <c r="D337" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E337" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Puna', 133);</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338" s="3">
         <v>134</v>
       </c>
-      <c r="D338" s="5" t="str">
+      <c r="D338" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E338" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 134);</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339" s="3">
         <v>135</v>
       </c>
-      <c r="D339" s="5" t="str">
+      <c r="D339" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E339" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Glitter', 135);</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340" s="3">
         <v>136</v>
       </c>
-      <c r="D340" s="5" t="str">
+      <c r="D340" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E340" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 136);</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341" s="3">
         <v>137</v>
       </c>
-      <c r="D341" s="5" t="str">
+      <c r="D341" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E341" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 137);</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342" s="3">
         <v>138</v>
       </c>
-      <c r="D342" s="5" t="str">
+      <c r="D342" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E342" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 138);</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343" s="3">
         <v>139</v>
       </c>
-      <c r="D343" s="5" t="str">
+      <c r="D343" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E343" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 139);</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344" s="3">
         <v>139</v>
       </c>
-      <c r="D344" s="5" t="str">
+      <c r="D344" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E344" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 139);</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345" s="3">
         <v>140</v>
       </c>
-      <c r="D345" s="5" t="str">
+      <c r="D345" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E345" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 140);</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346" s="3">
         <v>141</v>
       </c>
-      <c r="D346" s="5" t="str">
+      <c r="D346" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E346" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 141);</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347" s="3">
         <v>141</v>
       </c>
-      <c r="D347" s="5" t="str">
+      <c r="D347" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E347" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 141);</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348" s="3">
         <v>142</v>
       </c>
-      <c r="D348" s="5" t="str">
+      <c r="D348" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E348" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 142);</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349" s="3">
         <v>142</v>
       </c>
-      <c r="D349" s="5" t="str">
+      <c r="D349" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E349" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 142);</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350" s="3">
         <v>143</v>
       </c>
-      <c r="D350" s="5" t="str">
+      <c r="D350" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E350" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 143);</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351" s="3">
         <v>144</v>
       </c>
-      <c r="D351" s="5" t="str">
+      <c r="D351" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E351" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 144);</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352" s="3">
         <v>145</v>
       </c>
-      <c r="D352" s="5" t="str">
+      <c r="D352" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E352" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 145);</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353" s="3">
         <v>146</v>
       </c>
-      <c r="D353" s="5" t="str">
+      <c r="D353" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E353" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 146);</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354" s="3">
         <v>146</v>
       </c>
-      <c r="D354" s="5" t="str">
+      <c r="D354" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E354" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 146);</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355" s="3">
         <v>147</v>
       </c>
-      <c r="D355" s="5" t="str">
+      <c r="D355" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E355" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 147);</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356" s="3">
         <v>148</v>
       </c>
-      <c r="D356" s="5" t="str">
+      <c r="D356" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E356" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 148);</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357" s="3">
         <v>148</v>
       </c>
-      <c r="D357" s="5" t="str">
+      <c r="D357" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E357" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 148);</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358" s="3">
         <v>149</v>
       </c>
-      <c r="D358" s="5" t="str">
+      <c r="D358" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E358" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 149);</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359" s="3">
         <v>150</v>
       </c>
-      <c r="D359" s="5" t="str">
+      <c r="D359" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E359" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 150);</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360" s="3">
         <v>151</v>
       </c>
-      <c r="D360" s="5" t="str">
+      <c r="D360" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E360" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 151);</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361" s="3">
         <v>152</v>
       </c>
-      <c r="D361" s="5" t="str">
+      <c r="D361" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E361" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 152);</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362" s="3">
         <v>152</v>
       </c>
-      <c r="D362" s="5" t="str">
+      <c r="D362" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E362" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 152);</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363" s="3">
         <v>152</v>
       </c>
-      <c r="D363" s="5" t="str">
+      <c r="D363" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E363" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 152);</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364" s="3">
         <v>153</v>
       </c>
-      <c r="D364" s="5" t="str">
+      <c r="D364" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E364" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 153);</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365" s="3">
         <v>154</v>
       </c>
-      <c r="D365" s="5" t="str">
+      <c r="D365" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E365" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 154);</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366" s="3">
         <v>155</v>
       </c>
-      <c r="D366" s="5" t="str">
+      <c r="D366" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E366" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 155);</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367" s="3">
         <v>155</v>
       </c>
-      <c r="D367" s="5" t="str">
+      <c r="D367" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E367" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 155);</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368" s="3">
         <v>155</v>
       </c>
-      <c r="D368" s="5" t="str">
+      <c r="D368" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E368" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 155);</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369" s="3">
         <v>156</v>
       </c>
-      <c r="D369" s="5" t="str">
+      <c r="D369" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E369" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 156);</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370" s="3">
         <v>157</v>
       </c>
-      <c r="D370" s="5" t="str">
+      <c r="D370" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E370" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 157);</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371" s="3">
         <v>158</v>
       </c>
-      <c r="D371" s="5" t="str">
+      <c r="D371" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E371" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 158);</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372" s="3">
         <v>159</v>
       </c>
-      <c r="D372" s="5" t="str">
+      <c r="D372" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E372" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 159);</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373" s="3">
         <v>160</v>
       </c>
-      <c r="D373" s="5" t="str">
+      <c r="D373" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E373" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 160);</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374" s="3">
         <v>161</v>
       </c>
-      <c r="D374" s="5" t="str">
+      <c r="D374" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E374" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 161);</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375" s="3">
         <v>161</v>
       </c>
-      <c r="D375" s="5" t="str">
+      <c r="D375" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E375" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 161);</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376" s="3">
         <v>162</v>
       </c>
-      <c r="D376" s="5" t="str">
+      <c r="D376" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E376" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 162);</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377" s="3">
         <v>163</v>
       </c>
-      <c r="D377" s="5" t="str">
+      <c r="D377" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E377" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 163);</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378" s="3">
         <v>164</v>
       </c>
-      <c r="D378" s="5" t="str">
+      <c r="D378" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E378" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 164);</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379" s="3">
         <v>165</v>
       </c>
-      <c r="D379" s="5" t="str">
+      <c r="D379" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E379" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 165);</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380" s="3">
         <v>166</v>
       </c>
-      <c r="D380" s="5" t="str">
+      <c r="D380" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E380" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 166);</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381" s="3">
         <v>167</v>
       </c>
-      <c r="D381" s="5" t="str">
+      <c r="D381" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E381" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 167);</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382" s="3">
         <v>168</v>
       </c>
-      <c r="D382" s="5" t="str">
+      <c r="D382" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E382" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Big Merino', 168);</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383" s="3">
         <v>168</v>
       </c>
-      <c r="D383" s="5" t="str">
+      <c r="D383" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E383" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 168);</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384" s="3">
         <v>168</v>
       </c>
-      <c r="D384" s="5" t="str">
+      <c r="D384" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E384" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Daisy', 168);</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385" s="3">
         <v>169</v>
       </c>
-      <c r="D385" s="5" t="str">
+      <c r="D385" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E385" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 169);</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386" s="3">
         <v>170</v>
       </c>
-      <c r="D386" s="5" t="str">
+      <c r="D386" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E386" s="4" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 170);</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387" s="3">
         <v>171</v>
       </c>
-      <c r="D387" s="5" t="str">
-        <f t="shared" ref="D387:D417" si="6">"INSERT INTO garn_har_farge VALUES ('"&amp;A387&amp;"', '"&amp;B387&amp;"', "&amp;C387&amp;");"</f>
+      <c r="D387" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E387" s="4" t="str">
+        <f t="shared" ref="E387:E417" si="6">"INSERT INTO garn_har_farge VALUES ('"&amp;A387&amp;"', '"&amp;B387&amp;"', "&amp;C387&amp;");"</f>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Delight', 171);</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388" s="3">
         <v>172</v>
       </c>
-      <c r="D388" s="5" t="str">
+      <c r="D388" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E388" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 172);</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389" s="3">
         <v>172</v>
       </c>
-      <c r="D389" s="5" t="str">
+      <c r="D389" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E389" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 172);</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390" s="3">
         <v>173</v>
       </c>
-      <c r="D390" s="5" t="str">
+      <c r="D390" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E390" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 173);</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391" s="3">
         <v>173</v>
       </c>
-      <c r="D391" s="5" t="str">
+      <c r="D391" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E391" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 173);</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392" s="3">
         <v>174</v>
       </c>
-      <c r="D392" s="5" t="str">
+      <c r="D392" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E392" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 174);</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393" s="3">
         <v>175</v>
       </c>
-      <c r="D393" s="5" t="str">
+      <c r="D393" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E393" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 175);</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394" s="3">
         <v>175</v>
       </c>
-      <c r="D394" s="5" t="str">
+      <c r="D394" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E394" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Bomull-Lin', 175);</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395" s="3">
         <v>175</v>
       </c>
-      <c r="D395" s="5" t="str">
+      <c r="D395" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E395" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 175);</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396" s="3">
         <v>175</v>
       </c>
-      <c r="D396" s="5" t="str">
+      <c r="D396" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E396" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 175);</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397" s="3">
         <v>175</v>
       </c>
-      <c r="D397" s="5" t="str">
+      <c r="D397" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E397" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 175);</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398" s="3">
         <v>176</v>
       </c>
-      <c r="D398" s="5" t="str">
+      <c r="D398" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E398" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 176);</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399" s="3">
         <v>177</v>
       </c>
-      <c r="D399" s="5" t="str">
+      <c r="D399" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E399" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 177);</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400" s="3">
         <v>178</v>
       </c>
-      <c r="D400" s="5" t="str">
+      <c r="D400" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E400" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Nord', 178);</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401" s="3">
         <v>179</v>
       </c>
-      <c r="D401" s="5" t="str">
+      <c r="D401" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E401" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 179);</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402" s="3">
         <v>180</v>
       </c>
-      <c r="D402" s="5" t="str">
+      <c r="D402" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E402" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 180);</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403" s="3">
         <v>181</v>
       </c>
-      <c r="D403" s="5" t="str">
+      <c r="D403" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E403" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Belle', 181);</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404" s="3">
         <v>182</v>
       </c>
-      <c r="D404" s="5" t="str">
+      <c r="D404" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E404" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 182);</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405" s="3">
         <v>183</v>
       </c>
-      <c r="D405" s="5" t="str">
+      <c r="D405" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E405" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Wish', 183);</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406" s="3">
         <v>184</v>
       </c>
-      <c r="D406" s="5" t="str">
+      <c r="D406" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E406" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Soft Tweed', 184);</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407" s="3">
         <v>185</v>
       </c>
-      <c r="D407" s="5" t="str">
+      <c r="D407" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E407" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 185);</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408" s="3">
         <v>186</v>
       </c>
-      <c r="D408" s="5" t="str">
+      <c r="D408" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E408" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Loves You 9', 186);</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409" s="3">
         <v>186</v>
       </c>
-      <c r="D409" s="5" t="str">
+      <c r="D409" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E409" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 186);</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410" s="3">
         <v>187</v>
       </c>
-      <c r="D410" s="5" t="str">
+      <c r="D410" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E410" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 187);</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411" s="3">
         <v>188</v>
       </c>
-      <c r="D411" s="5" t="str">
+      <c r="D411" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E411" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 188);</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412" s="3">
         <v>189</v>
       </c>
-      <c r="D412" s="5" t="str">
+      <c r="D412" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E412" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Glitter', 189);</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413" s="3">
         <v>190</v>
       </c>
-      <c r="D413" s="5" t="str">
+      <c r="D413" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E413" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 190);</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414" s="3">
         <v>191</v>
       </c>
-      <c r="D414" s="5" t="str">
+      <c r="D414" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E414" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 191);</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415" s="3">
         <v>192</v>
       </c>
-      <c r="D415" s="5" t="str">
+      <c r="D415" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E415" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Melody', 192);</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416" s="3">
         <v>192</v>
       </c>
-      <c r="D416" s="5" t="str">
+      <c r="D416" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E416" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Cotton Merino', 192);</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417" s="3">
         <v>193</v>
       </c>
-      <c r="D417" s="5" t="str">
+      <c r="D417" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E417" s="4" t="str">
         <f t="shared" si="6"/>
         <v>INSERT INTO garn_har_farge VALUES ('Drops', 'Sky', 193);</v>
       </c>
